--- a/public/jargon_and_acronyms.xlsx
+++ b/public/jargon_and_acronyms.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Brendan.campbell/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Brendan.campbell/source/personal/jargon-buster/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC39C0E2-8B02-FE4C-825C-A11D852BE79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF01FFC2-93FC-B641-BDC5-956801CBA8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="30240" windowHeight="18880" xr2:uid="{E5626C7C-A339-EF44-9421-6BA264895E86}"/>
+    <workbookView xWindow="30240" yWindow="-1460" windowWidth="38400" windowHeight="21100" xr2:uid="{E5626C7C-A339-EF44-9421-6BA264895E86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="315">
   <si>
     <t>Term</t>
   </si>
@@ -246,9 +246,6 @@
   </si>
   <si>
     <t>ER</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Executive Review</t>
   </si>
   <si>
     <t>ET</t>
@@ -903,12 +900,138 @@
   <si>
     <t>Operating  Attribution</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Actual Billing Rate</t>
+  </si>
+  <si>
+    <t>Assignment Manager</t>
+  </si>
+  <si>
+    <t>Analyst</t>
+  </si>
+  <si>
+    <t>Associate Partner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Assignment Performance review</t>
+  </si>
+  <si>
+    <t>Administrative Staff</t>
+  </si>
+  <si>
+    <t>Assignment Security Plan</t>
+  </si>
+  <si>
+    <t>Business As Usual</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Client Authorisation Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Curiosity, Involvement, Confidence, Problem resolution, Obstacle, Decision, Evaluation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Consultancy Process Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Client Value Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dynamic Search Library</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Executive Information System</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Goal, Reality, Options, Way Forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Internal Billing Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Internal Cost Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Job Audit report</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Myer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Management Information,  Planning and Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manager Transaction Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Office 365</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PA’s Approach to Achieving Assignment Success</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Personality And Preference Inventory</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Partne</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Partner Notional Bonus Credit Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Risk Assessment Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Solution, Competition, Originality, Timescale, Size, Money, Authority, Need</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Situation  Complication Question Answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Secure Entry Point</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Schedule of Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stock Of Work</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Situation  Problem Implication Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SharePoint Online</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Top Down Thinking</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thought Leadership</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Terms of Business</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Time Value of Money</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Virtual Private Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Work In Progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> xRM (Extended Relationship Management) is our Sales and Contact Management system with integrated contac</t>
+  </si>
+  <si>
+    <t>Business Continuity Plan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -920,6 +1043,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -943,8 +1073,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1279,16 +1410,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B8514E-7BB7-5448-92A7-AC2D3CACAF56}">
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87:B136"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="93" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.83203125" customWidth="1"/>
     <col min="4" max="4" width="138" customWidth="1"/>
     <col min="5" max="5" width="255.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.83203125" bestFit="1" customWidth="1"/>
@@ -1299,12 +1430,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
@@ -1316,14 +1447,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C2" t="str">
-        <f>LEFT(E2, FIND("-", E2) - 2)</f>
-        <v xml:space="preserve"> Actual Billing Rate</v>
+        <v>271</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D65" si="0">TRIM(MID(E2, FIND("-", E2) + 1, LEN(E2)))</f>
+        <f t="shared" ref="D2:D63" si="0">TRIM(MID(E2, FIND("-", E2) + 1, LEN(E2)))</f>
         <v>The hourly rate to be billed to the customer. Should aim to be greater than or equal to the IBR (Internal Billing Rate).</v>
       </c>
       <c r="E2" t="s">
@@ -1335,7 +1465,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -1346,7 +1479,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -1357,7 +1493,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>276</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -1368,11 +1507,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C6" t="str">
-        <f>LEFT(E6, FIND("-", E6) - 2)</f>
-        <v xml:space="preserve"> Assignment Performance review</v>
+        <v>271</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -1387,7 +1525,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1398,7 +1539,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
@@ -1409,10 +1553,13 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1420,7 +1567,10 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -1431,7 +1581,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C11" t="s">
+        <v>314</v>
       </c>
       <c r="E11" t="s">
         <v>20</v>
@@ -1442,7 +1595,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
       </c>
       <c r="E12" t="s">
         <v>22</v>
@@ -1453,7 +1609,10 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
       </c>
       <c r="E13" t="s">
         <v>24</v>
@@ -1464,18 +1623,17 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>272</v>
-      </c>
-      <c r="C14" t="str">
-        <f>LEFT(E14, FIND("-", E14) - 2)</f>
-        <v xml:space="preserve"> Client Authorisation Form</v>
+        <v>271</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v>Signatures of PIC and client indication acceptance of proposal money letter and ToBs</v>
       </c>
       <c r="E14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1483,7 +1641,10 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
       </c>
       <c r="E15" t="s">
         <v>27</v>
@@ -1494,7 +1655,10 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
@@ -1505,7 +1669,10 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
       </c>
       <c r="E17" t="s">
         <v>31</v>
@@ -1516,7 +1683,10 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
       </c>
       <c r="E18" t="s">
         <v>33</v>
@@ -1527,18 +1697,17 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>272</v>
-      </c>
-      <c r="C19" t="str">
-        <f>LEFT(E19, FIND("-", E19) - 2)</f>
-        <v xml:space="preserve"> Curiosity, Involvement, Confidence, Problem resolution, Obstacle, Decision, Evaluation</v>
+        <v>271</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
         <v>A client’s buying sequence</v>
       </c>
       <c r="E19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1546,8 +1715,9 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C20" s="1"/>
       <c r="E20" t="s">
         <v>36</v>
       </c>
@@ -1557,8 +1727,9 @@
         <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C21" s="1"/>
       <c r="E21" t="s">
         <v>38</v>
       </c>
@@ -1568,8 +1739,9 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C22" s="1"/>
       <c r="E22" t="s">
         <v>40</v>
       </c>
@@ -1579,8 +1751,9 @@
         <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C23" s="1"/>
       <c r="E23" t="s">
         <v>42</v>
       </c>
@@ -1590,8 +1763,9 @@
         <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C24" s="1"/>
       <c r="E24" t="s">
         <v>44</v>
       </c>
@@ -1601,11 +1775,10 @@
         <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>272</v>
-      </c>
-      <c r="C25" t="str">
-        <f>LEFT(E25, FIND("-", E25) - 2)</f>
-        <v xml:space="preserve"> Consultancy Process Model</v>
+        <v>271</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -1620,11 +1793,10 @@
         <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>272</v>
-      </c>
-      <c r="C26" t="str">
-        <f>LEFT(E26, FIND("-", E26) - 2)</f>
-        <v xml:space="preserve"> Client Value Review</v>
+        <v>271</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -1639,8 +1811,9 @@
         <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C27" s="1"/>
       <c r="E27" t="s">
         <v>50</v>
       </c>
@@ -1650,8 +1823,9 @@
         <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C28" s="1"/>
       <c r="E28" t="s">
         <v>52</v>
       </c>
@@ -1661,8 +1835,9 @@
         <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C29" s="1"/>
       <c r="E29" t="s">
         <v>54</v>
       </c>
@@ -1672,8 +1847,9 @@
         <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C30" s="1"/>
       <c r="E30" t="s">
         <v>56</v>
       </c>
@@ -1683,11 +1859,10 @@
         <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>272</v>
-      </c>
-      <c r="C31" t="str">
-        <f>LEFT(E31, FIND("-", E31) - 2)</f>
-        <v xml:space="preserve"> Dynamic Search Library</v>
+        <v>271</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
@@ -1702,8 +1877,9 @@
         <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C32" s="1"/>
       <c r="E32" t="s">
         <v>60</v>
       </c>
@@ -1713,8 +1889,9 @@
         <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C33" s="1"/>
       <c r="E33" t="s">
         <v>62</v>
       </c>
@@ -1724,8 +1901,9 @@
         <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C34" s="1"/>
       <c r="E34" t="s">
         <v>64</v>
       </c>
@@ -1735,11 +1913,10 @@
         <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>272</v>
-      </c>
-      <c r="C35" t="str">
-        <f>LEFT(E35, FIND("-", E35) - 2)</f>
-        <v xml:space="preserve"> Executive Information System</v>
+        <v>271</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
@@ -1754,128 +1931,142 @@
         <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C36" s="1"/>
       <c r="E36" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C37" s="1"/>
       <c r="E37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" t="s">
+        <v>73</v>
       </c>
       <c r="E38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>272</v>
-      </c>
-      <c r="C39" t="str">
-        <f>LEFT(E39, FIND("-", E39) - 2)</f>
-        <v xml:space="preserve"> Hig</v>
-      </c>
-      <c r="D39" t="str">
-        <f t="shared" si="0"/>
-        <v>level review of a prospect considered risky as a result of the Bid No-bid performed. The review will be re-performed later in the assignment.</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C39" s="1"/>
       <c r="E39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C40" s="1"/>
       <c r="E40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C41" s="1"/>
       <c r="E41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C42" s="1"/>
       <c r="E42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C43" s="1"/>
       <c r="E43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C44" s="1"/>
       <c r="E44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C45" s="1"/>
       <c r="E45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">A format for a typical coaching session			</v>
       </c>
       <c r="E46" t="s">
-        <v>88</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1883,202 +2074,215 @@
         <v>89</v>
       </c>
       <c r="B47" t="s">
-        <v>272</v>
-      </c>
-      <c r="C47" t="str">
-        <f>LEFT(E47, FIND("-", E47) - 2)</f>
-        <v xml:space="preserve"> Goal, Reality, Options, Way Forward</v>
-      </c>
-      <c r="D47" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">A format for a typical coaching session			</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C47" s="1"/>
       <c r="E47" t="s">
-        <v>253</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B48" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C48" s="1"/>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B49" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C49" s="1"/>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C50" s="1"/>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B51" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C51" s="1"/>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B52" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C52" s="1"/>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C53" s="1"/>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B54" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C54" s="1"/>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B55" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C55" s="1"/>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B56" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C56" s="1"/>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C57" s="1"/>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B58" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C58" s="1"/>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B59" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C59" s="1"/>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B60" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C60" s="1"/>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B61" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C61" s="1"/>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B62" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>ICR plus the standard PA margin (currently 27.5%). Our minimum threshold for actual billing rate charged to client (see ABR).</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B63" t="s">
-        <v>272</v>
-      </c>
-      <c r="C63" t="str">
-        <f>LEFT(E63, FIND("-", E63) - 2)</f>
-        <v xml:space="preserve"> Internal Billing Rate</v>
+        <v>271</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="0"/>
-        <v>ICR plus the standard PA margin (currently 27.5%). Our minimum threshold for actual billing rate charged to client (see ABR).</v>
+        <v xml:space="preserve">Represents the hourly cost of a person in PA. Derived from total direct costs plus overhead allocations adjusted for utilisation target.		</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -2086,48 +2290,41 @@
         <v>122</v>
       </c>
       <c r="B64" t="s">
-        <v>272</v>
-      </c>
-      <c r="C64" t="str">
-        <f>LEFT(E64, FIND("-", E64) - 2)</f>
-        <v xml:space="preserve"> Internal Cost Rate</v>
-      </c>
-      <c r="D64" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Represents the hourly cost of a person in PA. Derived from total direct costs plus overhead allocations adjusted for utilisation target.		</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C64" s="1"/>
       <c r="E64" t="s">
-        <v>254</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B65" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" ref="D65:D127" si="1">TRIM(MID(E65, FIND("-", E65) + 1, LEN(E65)))</f>
+        <v>a document audit report on jobs/projects</v>
       </c>
       <c r="E65" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B66" t="s">
-        <v>272</v>
-      </c>
-      <c r="C66" t="str">
-        <f>LEFT(E66, FIND("-", E66) - 2)</f>
-        <v xml:space="preserve"> Job Audit report</v>
-      </c>
-      <c r="D66" t="str">
-        <f t="shared" ref="D66:D129" si="1">TRIM(MID(E66, FIND("-", E66) + 1, LEN(E66)))</f>
-        <v>a document audit report on jobs/projects</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C66" s="1"/>
       <c r="E66" t="s">
-        <v>126</v>
+        <v>254</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -2135,95 +2332,107 @@
         <v>127</v>
       </c>
       <c r="B67" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C67" s="1"/>
       <c r="E67" t="s">
-        <v>255</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B68" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C68" s="1"/>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B69" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C69" s="1"/>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B70" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C70" s="1"/>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B71" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>Briggs Type Indicator - A psychometric questionnaire; provoking self-awareness by looking at how a person perceives the world and how they prefer to interact with others.</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B72" t="s">
-        <v>272</v>
-      </c>
-      <c r="C72" t="str">
-        <f>LEFT(E72, FIND("-", E72) - 2)</f>
-        <v xml:space="preserve"> Myer</v>
-      </c>
-      <c r="D72" t="str">
-        <f t="shared" si="1"/>
-        <v>Briggs Type Indicator - A psychometric questionnaire; provoking self-awareness by looking at how a person perceives the world and how they prefer to interact with others.</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C72" s="1"/>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B73" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C73" s="1"/>
       <c r="E73" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B74" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">PA’s suite of applications to commercially manage our projects.	</v>
       </c>
       <c r="E74" t="s">
-        <v>140</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -2231,48 +2440,41 @@
         <v>141</v>
       </c>
       <c r="B75" t="s">
-        <v>272</v>
-      </c>
-      <c r="C75" t="str">
-        <f>LEFT(E75, FIND("-", E75) - 2)</f>
-        <v xml:space="preserve"> Management Information,  Planning and Control</v>
-      </c>
-      <c r="D75" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">PA’s suite of applications to commercially manage our projects.	</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C75" s="1"/>
       <c r="E75" t="s">
-        <v>256</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B76" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>report in PeopleSoft of all transactions booked to a project.</v>
       </c>
       <c r="E76" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B77" t="s">
-        <v>272</v>
-      </c>
-      <c r="C77" t="str">
-        <f>LEFT(E77, FIND("-", E77) - 2)</f>
-        <v xml:space="preserve"> Manager Transaction Review</v>
-      </c>
-      <c r="D77" t="str">
-        <f t="shared" si="1"/>
-        <v>report in PeopleSoft of all transactions booked to a project.</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C77" s="1"/>
       <c r="E77" t="s">
-        <v>145</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -2280,117 +2482,125 @@
         <v>146</v>
       </c>
       <c r="B78" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C78" s="1"/>
       <c r="E78" t="s">
-        <v>257</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B79" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>latest version of the Microsoft office suite</v>
       </c>
       <c r="E79" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B80" t="s">
-        <v>272</v>
-      </c>
-      <c r="C80" t="str">
-        <f>LEFT(E80, FIND("-", E80) - 2)</f>
-        <v xml:space="preserve"> Office 365</v>
-      </c>
-      <c r="D80" t="str">
-        <f t="shared" si="1"/>
-        <v>latest version of the Microsoft office suite</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C80" s="1"/>
       <c r="E80" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B81" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C81" s="1"/>
       <c r="E81" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>153</v>
+        <v>272</v>
       </c>
       <c r="B82" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C82" s="1"/>
       <c r="E82" t="s">
-        <v>154</v>
+        <v>257</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>273</v>
+        <v>154</v>
       </c>
       <c r="B83" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C83" s="1"/>
       <c r="E83" t="s">
-        <v>258</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B84" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C84" s="1"/>
       <c r="E84" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B85" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C85" s="1"/>
       <c r="E85" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B86" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C86" s="1"/>
       <c r="E86" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B87" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C87" s="1"/>
       <c r="E87" t="s">
-        <v>162</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -2398,51 +2608,59 @@
         <v>163</v>
       </c>
       <c r="B88" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v>A document detailing our commercial processes for managing assignments.</v>
       </c>
       <c r="E88" t="s">
-        <v>259</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B89" t="s">
-        <v>272</v>
-      </c>
-      <c r="C89" t="str">
-        <f>LEFT(E89, FIND("-", E89) - 2)</f>
-        <v xml:space="preserve"> PA’s Approach to Achieving Assignment Success</v>
-      </c>
-      <c r="D89" t="str">
-        <f t="shared" si="1"/>
-        <v>A document detailing our commercial processes for managing assignments.</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C89" s="1"/>
       <c r="E89" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B90" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C90" s="1"/>
       <c r="E90" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B91" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>PAPI looks at how you are as a person at work; what motivates you and how you feel you behave at work</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -2450,70 +2668,71 @@
         <v>170</v>
       </c>
       <c r="B92" t="s">
-        <v>272</v>
-      </c>
-      <c r="C92" t="str">
-        <f>LEFT(E92, FIND("-", E92) - 2)</f>
-        <v xml:space="preserve"> Personality And Preference Inventory</v>
-      </c>
-      <c r="D92" t="str">
-        <f t="shared" si="1"/>
-        <v>PAPI looks at how you are as a person at work; what motivates you and how you feel you behave at work</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C92" s="1"/>
       <c r="E92" t="s">
-        <v>260</v>
+        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B93" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C93" s="1"/>
       <c r="E93" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B94" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C94" s="1"/>
       <c r="E94" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B95" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="1"/>
+        <v>in-Charge - The Member of PA’s Management Group responsible for bid or project</v>
       </c>
       <c r="E95" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B96" t="s">
-        <v>272</v>
-      </c>
-      <c r="C96" t="str">
-        <f>LEFT(E96, FIND("-", E96) - 2)</f>
-        <v xml:space="preserve"> Partne</v>
+        <v>271</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="1"/>
-        <v>in-Charge - The Member of PA’s Management Group responsible for bid or project</v>
+        <v>Monthly report sent to partners showing the calculation of the number of bonus credits they have accumulated on their project for the year to date using their attribution	 the project’s profitability and the level of debt and WIP outstanding.</v>
       </c>
       <c r="E96" t="s">
-        <v>178</v>
+        <v>260</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -2521,92 +2740,91 @@
         <v>179</v>
       </c>
       <c r="B97" t="s">
-        <v>272</v>
-      </c>
-      <c r="C97" t="str">
-        <f>LEFT(E97, FIND("-", E97) - 2)</f>
-        <v xml:space="preserve"> Partner Notional Bonus Credit Report</v>
-      </c>
-      <c r="D97" t="str">
-        <f t="shared" si="1"/>
-        <v>Monthly report sent to partners showing the calculation of the number of bonus credits they have accumulated on their project for the year to date using their attribution	 the project’s profitability and the level of debt and WIP outstanding.</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C97" s="1"/>
       <c r="E97" t="s">
-        <v>261</v>
+        <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B98" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C98" s="1"/>
       <c r="E98" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B99" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" t="str">
+        <f t="shared" si="1"/>
+        <v>Qualification Questionnaire</v>
       </c>
       <c r="E99" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B100" t="s">
-        <v>272</v>
-      </c>
-      <c r="D100" t="str">
-        <f t="shared" si="1"/>
-        <v>Qualification Questionnaire</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C100" s="1"/>
       <c r="E100" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B101" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C101" s="1"/>
       <c r="E101" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B102" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" t="str">
+        <f t="shared" si="1"/>
+        <v>Tender Market Engagement</v>
       </c>
       <c r="E102" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B103" t="s">
-        <v>272</v>
-      </c>
-      <c r="D103" t="str">
-        <f t="shared" si="1"/>
-        <v>Tender Market Engagement</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C103" s="1"/>
       <c r="E103" t="s">
-        <v>191</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -2614,7 +2832,14 @@
         <v>192</v>
       </c>
       <c r="B104" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="1"/>
+        <v>Evaluates the risk during the pre-sale and sales confirmation stages and enables risk management during the assignment’s lifetime. The PIC must complete this form for all bids. and enables risk management during the assignment’s lifetime. The PIC must complete this form for all bids.</v>
       </c>
       <c r="E104" t="s">
         <v>262</v>
@@ -2625,84 +2850,89 @@
         <v>193</v>
       </c>
       <c r="B105" t="s">
-        <v>272</v>
-      </c>
-      <c r="C105" t="str">
-        <f>LEFT(E105, FIND("-", E105) - 2)</f>
-        <v xml:space="preserve"> Risk Assessment Form</v>
-      </c>
-      <c r="D105" t="str">
-        <f t="shared" si="1"/>
-        <v>Evaluates the risk during the pre-sale and sales confirmation stages and enables risk management during the assignment’s lifetime. The PIC must complete this form for all bids. and enables risk management during the assignment’s lifetime. The PIC must complete this form for all bids.</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C105" s="1"/>
       <c r="E105" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B106" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C106" s="1"/>
       <c r="E106" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B107" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C107" s="1"/>
       <c r="E107" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B108" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C108" s="1"/>
       <c r="E108" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B109" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C109" s="1"/>
       <c r="E109" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B110" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C110" s="1"/>
       <c r="E110" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B111" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="1"/>
+        <v>An acronym to remember key aspects of qualifying a sales opportunity Competition	 Originality	 Timescale	 Size	 Money	 Authority	 Need - An acronym to remember key aspects of qualifying a sales opportunity</v>
       </c>
       <c r="E111" t="s">
-        <v>205</v>
+        <v>263</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -2710,15 +2940,14 @@
         <v>206</v>
       </c>
       <c r="B112" t="s">
-        <v>272</v>
-      </c>
-      <c r="C112" t="str">
-        <f>LEFT(E112, FIND("-", E112) - 2)</f>
-        <v xml:space="preserve"> Solution, Competition, Originality, Timescale, Size, Money, Authority, Need</v>
+        <v>271</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="1"/>
-        <v>An acronym to remember key aspects of qualifying a sales opportunity Competition	 Originality	 Timescale	 Size	 Money	 Authority	 Need - An acronym to remember key aspects of qualifying a sales opportunity</v>
+        <v>A format for an introduction. Part of the Top Down Thinking methodology</v>
       </c>
       <c r="E112" t="s">
         <v>264</v>
@@ -2729,15 +2958,14 @@
         <v>207</v>
       </c>
       <c r="B113" t="s">
-        <v>272</v>
-      </c>
-      <c r="C113" t="str">
-        <f>LEFT(E113, FIND("-", E113) - 2)</f>
-        <v xml:space="preserve"> Situation  Complication	 Question	 Answer</v>
+        <v>271</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="1"/>
-        <v>A format for an introduction. Part of the Top Down Thinking methodology</v>
+        <v>Access to email calendar etc. while not on a PA Network or VPN</v>
       </c>
       <c r="E113" t="s">
         <v>265</v>
@@ -2748,78 +2976,77 @@
         <v>208</v>
       </c>
       <c r="B114" t="s">
-        <v>272</v>
-      </c>
-      <c r="C114" t="str">
-        <f>LEFT(E114, FIND("-", E114) - 2)</f>
-        <v xml:space="preserve"> Secure Entry Point</v>
-      </c>
-      <c r="D114" t="str">
-        <f t="shared" si="1"/>
-        <v>Access to email calendar etc. while not on a PA Network or VPN</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C114" s="1"/>
       <c r="E114" t="s">
-        <v>266</v>
+        <v>209</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B115" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" si="1"/>
+        <v>The money letter accompanying a proposal</v>
       </c>
       <c r="E115" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B116" t="s">
-        <v>272</v>
-      </c>
-      <c r="C116" t="str">
-        <f>LEFT(E116, FIND("-", E116) - 2)</f>
-        <v xml:space="preserve"> Schedule of Charges</v>
+        <v>271</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="1"/>
-        <v>The money letter accompanying a proposal</v>
+        <v>the value of revenue not yet booked on your project (Sales minus revenue booked)</v>
       </c>
       <c r="E116" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B117" t="s">
-        <v>272</v>
-      </c>
-      <c r="C117" t="str">
-        <f>LEFT(E117, FIND("-", E117) - 2)</f>
-        <v xml:space="preserve"> Stock Of Work</v>
-      </c>
-      <c r="D117" t="str">
-        <f t="shared" si="1"/>
-        <v>the value of revenue not yet booked on your project (Sales minus revenue booked)</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C117" s="1"/>
       <c r="E117" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B118" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="1"/>
+        <v>A questioning method that can be applied in a sales meeting</v>
       </c>
       <c r="E118" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -2827,130 +3054,131 @@
         <v>217</v>
       </c>
       <c r="B119" t="s">
-        <v>272</v>
-      </c>
-      <c r="C119" t="str">
-        <f>LEFT(E119, FIND("-", E119) - 2)</f>
-        <v xml:space="preserve"> Situation  Problem	 Implication	 Value</v>
+        <v>271</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="1"/>
-        <v>A questioning method that can be applied in a sales meeting</v>
+        <v>Latest version of Sharepoint</v>
       </c>
       <c r="E119" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B120" t="s">
-        <v>272</v>
-      </c>
-      <c r="C120" t="str">
-        <f>LEFT(E120, FIND("-", E120) - 2)</f>
-        <v xml:space="preserve"> SharePoint Online</v>
-      </c>
-      <c r="D120" t="str">
-        <f t="shared" si="1"/>
-        <v>Latest version of Sharepoint</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C120" s="1"/>
       <c r="E120" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B121" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C121" s="1"/>
       <c r="E121" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B122" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C122" s="1"/>
       <c r="E122" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B123" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="1"/>
+        <v>Training course on core PA communication philosophy</v>
       </c>
       <c r="E123" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B124" t="s">
-        <v>272</v>
-      </c>
-      <c r="C124" t="str">
-        <f>LEFT(E124, FIND("-", E124) - 2)</f>
-        <v xml:space="preserve"> Top Down Thinking</v>
-      </c>
-      <c r="D124" t="str">
-        <f t="shared" si="1"/>
-        <v>Training course on core PA communication philosophy</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C124" s="1"/>
       <c r="E124" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B125" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" si="1"/>
+        <v>Content rich collateral that enables PA to demonstrate its insight to potential clients</v>
       </c>
       <c r="E125" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B126" t="s">
-        <v>272</v>
-      </c>
-      <c r="C126" t="str">
-        <f>LEFT(E126, FIND("-", E126) - 2)</f>
-        <v xml:space="preserve"> Thought Leadership</v>
-      </c>
-      <c r="D126" t="str">
-        <f t="shared" si="1"/>
-        <v>Content rich collateral that enables PA to demonstrate its insight to potential clients</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C126" s="1"/>
       <c r="E126" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B127" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Specification of legal and commercial terms that when combined with a proposal	 money letter and CAF constitute the contract with a client	</v>
       </c>
       <c r="E127" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -2958,48 +3186,41 @@
         <v>234</v>
       </c>
       <c r="B128" t="s">
-        <v>272</v>
-      </c>
-      <c r="C128" t="str">
-        <f>LEFT(E128, FIND("-", E128) - 2)</f>
-        <v xml:space="preserve"> Terms of Business</v>
-      </c>
-      <c r="D128" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Specification of legal and commercial terms that when combined with a proposal	 money letter and CAF constitute the contract with a client	</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C128" s="1"/>
       <c r="E128" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B129" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D129" t="str">
+        <f t="shared" ref="D129:D135" si="2">TRIM(MID(E129, FIND("-", E129) + 1, LEN(E129)))</f>
+        <v>an internal interest charge applied weekly to a project for outstanding WIP and debt to encourage good working capital management.</v>
       </c>
       <c r="E129" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B130" t="s">
-        <v>272</v>
-      </c>
-      <c r="C130" t="str">
-        <f>LEFT(E130, FIND("-", E130) - 2)</f>
-        <v xml:space="preserve"> Time Value of Money</v>
-      </c>
-      <c r="D130" t="str">
-        <f t="shared" ref="D130:D136" si="2">TRIM(MID(E130, FIND("-", E130) + 1, LEN(E130)))</f>
-        <v>an internal interest charge applied weekly to a project for outstanding WIP and debt to encourage good working capital management.</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C130" s="1"/>
       <c r="E130" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -3007,92 +3228,81 @@
         <v>239</v>
       </c>
       <c r="B131" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C131" s="1"/>
       <c r="E131" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B132" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C132" s="1"/>
       <c r="E132" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B133" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D133" t="str">
+        <f t="shared" si="2"/>
+        <v>A way to connect to a private network from a public / personal location.</v>
       </c>
       <c r="E133" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B134" t="s">
-        <v>272</v>
-      </c>
-      <c r="C134" t="str">
-        <f>LEFT(E134, FIND("-", E134) - 2)</f>
-        <v xml:space="preserve"> Virtual Private Network</v>
+        <v>271</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="2"/>
-        <v>A way to connect to a private network from a public / personal location.</v>
+        <v>the difference between the value of revenue booked to a project and the amount that has been invoiced to the customer.</v>
       </c>
       <c r="E134" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B135" t="s">
-        <v>272</v>
-      </c>
-      <c r="C135" t="str">
-        <f>LEFT(E135, FIND("-", E135) - 2)</f>
-        <v xml:space="preserve"> Work In Progress</v>
+        <v>271</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="D135" t="str">
         <f t="shared" si="2"/>
-        <v>the difference between the value of revenue booked to a project and the amount that has been invoiced to the customer.</v>
+        <v>to-sale and risk management (Client Relationship Management tool)</v>
       </c>
       <c r="E135" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
         <v>248</v>
-      </c>
-      <c r="B136" t="s">
-        <v>272</v>
-      </c>
-      <c r="C136" t="str">
-        <f>LEFT(E136, FIND("-", E136) - 2)</f>
-        <v xml:space="preserve"> xRM (Extended Relationship Management) is our Sales and Contact Management system with integrated contac</v>
-      </c>
-      <c r="D136" t="str">
-        <f t="shared" si="2"/>
-        <v>to-sale and risk management (Client Relationship Management tool)</v>
-      </c>
-      <c r="E136" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/public/jargon_and_acronyms.xlsx
+++ b/public/jargon_and_acronyms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Brendan.campbell/source/personal/jargon-buster/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF01FFC2-93FC-B641-BDC5-956801CBA8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496D25ED-8392-DD4E-8081-21F3C98500F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="-1460" windowWidth="38400" windowHeight="21100" xr2:uid="{E5626C7C-A339-EF44-9421-6BA264895E86}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="315">
   <si>
     <t>Term</t>
   </si>
@@ -1412,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B8514E-7BB7-5448-92A7-AC2D3CACAF56}">
   <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E146" sqref="E146"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1549,9 +1549,6 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
       <c r="B9" t="s">
         <v>271</v>
       </c>
